--- a/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/qft_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC482D0-98F9-4D44-B518-FFBA47D43F17}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E8F1379-EEA4-C74D-A994-9E5C62E48A0F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$B$2:$B$47</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$L$2:$L$47</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$47</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$L$2:$L$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>file name</t>
   </si>
@@ -255,6 +261,10 @@
   </si>
   <si>
     <t>Enola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,6 +335,1415 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>QFT circuits</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tetris</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$L$2:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1.0151685848370693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0597800831713164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0921732763543521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.15899489482525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1717347059521619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3996546683025466</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6498856274552267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7413073363096974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0760290841715174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8527588070954095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2755644571706459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2834565223136507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.364165553481826</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6960736221552799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6138264556690443</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9533704035077601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9660703148736225</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1095720592762044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.111764598064807</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1931062429303445</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.588851529402264</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.89288625839648</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.107216017191083</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.348996142486774</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.463314329692077</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.604768872948153</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.454378239302876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.462723814845447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.422180004523277</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.90240538481666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.283217258025594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.800957794392836</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90.162420156598515</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165.34607190952778</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.551433754635653</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90.311009673574517</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>256.68179867528517</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>165.10837280792251</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>377.25000903502519</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>277.22073587140176</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>596.36186144851968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>391.90245936070784</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>947.46071545786037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>951.53601815240165</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>389.0795982667953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4AE-EC4F-8804-FAE73DF9AD64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Enola</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$Q$2:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.0341111414511606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0578793724711906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0877375049083819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1509209371130347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2091205930702209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.297124670277134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3804697672460737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5186201318923169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7123149298739355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9996864194718078</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.250848741492542</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9854994687726086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3820621093636078</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0402052423209005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9775554732513942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5137812903634149</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9202319004157236</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.381992426640767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.451473353254951</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.160783517572067</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.536900315741214</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.085153141979518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.251559685208036</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>143.29425762460215</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>241.3076696569612</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>414.36447958537599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4AE-EC4F-8804-FAE73DF9AD64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1775790592"/>
+        <c:axId val="1775792304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1775790592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Qubits</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775792304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1775792304"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775790592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0ED8C1C-72C5-DE4E-B1CC-8A59944DE206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,15 +2031,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,19 +2074,25 @@
         <v>71</v>
       </c>
       <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -702,20 +2127,28 @@
         <v>0.86468098268877081</v>
       </c>
       <c r="L2">
+        <f>E2/K2</f>
+        <v>1.0151685848370693</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <f>POWER(0.995,L2)</f>
+      <c r="N2">
+        <f>POWER(0.995,M2)</f>
         <v>0.995</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>29</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>0.84884199999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2">
+        <f>E2/P2</f>
+        <v>1.0341111414511606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -750,20 +2183,28 @@
         <v>0.77438165469602305</v>
       </c>
       <c r="L3">
+        <f t="shared" ref="L3:L47" si="0">E3/K3</f>
+        <v>1.0597800831713164</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M47" si="0">POWER(0.995,L3)</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N47" si="1">POWER(0.995,M3)</f>
         <v>0.98014950062500006</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>48</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>0.77577300000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q27" si="2">E3/P3</f>
+        <v>1.0578793724711906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -798,20 +2239,28 @@
         <v>0.70757094008172938</v>
       </c>
       <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.0921732763543521</v>
+      </c>
+      <c r="M4">
         <v>6</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
+      <c r="N4">
+        <f t="shared" si="1"/>
         <v>0.97037250935626573</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>51</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>0.71045639999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>1.0877375049083819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -846,20 +2295,28 @@
         <v>0.61183047771356813</v>
       </c>
       <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.15899489482525</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
+      <c r="N5">
+        <f t="shared" si="1"/>
         <v>0.95111013046577197</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>70</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>0.61612259999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>1.1509209371130347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -894,20 +2351,28 @@
         <v>0.55623957160452719</v>
       </c>
       <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.1717347059521619</v>
+      </c>
+      <c r="M6">
         <v>11</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
+      <c r="N6">
+        <f t="shared" si="1"/>
         <v>0.94635457981344306</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>87</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>0.53904070000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>1.2091205930702209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -942,20 +2407,28 @@
         <v>0.41795791056168169</v>
       </c>
       <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.3996546683025466</v>
+      </c>
+      <c r="M7">
         <v>23</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
+      <c r="N7">
+        <f t="shared" si="1"/>
         <v>0.89110905578020905</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>101</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>0.45099499999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>1.297124670277134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -990,20 +2463,28 @@
         <v>0.32043326026404961</v>
       </c>
       <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1.6498856274552267</v>
+      </c>
+      <c r="M8">
         <v>34</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
+      <c r="N8">
+        <f t="shared" si="1"/>
         <v>0.84330513605083379</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>124</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>0.38296980000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>1.3804697672460737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1038,20 +2519,28 @@
         <v>0.26617872213713478</v>
       </c>
       <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1.7413073363096974</v>
+      </c>
+      <c r="M9">
         <v>38</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
+      <c r="N9">
+        <f t="shared" si="1"/>
         <v>0.82656510797472249</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>146</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>0.3052106</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>1.5186201318923169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1086,20 +2575,28 @@
         <v>0.1970340444262563</v>
       </c>
       <c r="L10">
+        <f t="shared" si="0"/>
+        <v>2.0760290841715174</v>
+      </c>
+      <c r="M10">
         <v>50</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
+      <c r="N10">
+        <f t="shared" si="1"/>
         <v>0.77831255706864233</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>168</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>0.23888619999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>1.7123149298739355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1134,20 +2631,28 @@
         <v>0.18928216916161239</v>
       </c>
       <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1.8527588070954095</v>
+      </c>
+      <c r="M11">
         <v>43</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="N11">
+        <f t="shared" si="1"/>
         <v>0.80610659092639603</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>186</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>0.17537459999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>1.9996864194718078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1182,20 +2687,28 @@
         <v>0.13326140707084341</v>
       </c>
       <c r="L12">
+        <f t="shared" si="0"/>
+        <v>2.2755644571706459</v>
+      </c>
+      <c r="M12">
         <v>57</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
+      <c r="N12">
+        <f t="shared" si="1"/>
         <v>0.75147684352085931</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>213</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>0.1347247</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>2.250848741492542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1230,20 +2743,28 @@
         <v>0.11125506264545799</v>
       </c>
       <c r="L13">
+        <f t="shared" si="0"/>
+        <v>2.2834565223136507</v>
+      </c>
+      <c r="M13">
         <v>58</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
+      <c r="N13">
+        <f t="shared" si="1"/>
         <v>0.74771945930325501</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>232</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>6.3742599999999996E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>3.9854994687726086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1278,20 +2799,28 @@
         <v>6.4081695381845702E-2</v>
       </c>
       <c r="L14">
+        <f t="shared" si="0"/>
+        <v>3.364165553481826</v>
+      </c>
+      <c r="M14">
         <v>84</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
+      <c r="N14">
+        <f t="shared" si="1"/>
         <v>0.65635497682884381</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>239</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>6.3742599999999996E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>3.3820621093636078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1326,20 +2855,28 @@
         <v>4.7909911351535182E-2</v>
       </c>
       <c r="L15">
+        <f t="shared" si="0"/>
+        <v>3.6960736221552799</v>
+      </c>
+      <c r="M15">
         <v>91</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
+      <c r="N15">
+        <f t="shared" si="1"/>
         <v>0.63372428176440931</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>274</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>4.3829100000000003E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>4.0402052423209005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1374,20 +2911,28 @@
         <v>3.1921528162708337E-2</v>
       </c>
       <c r="L16">
+        <f t="shared" si="0"/>
+        <v>4.6138264556690443</v>
+      </c>
+      <c r="M16">
         <v>106</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
+      <c r="N16">
+        <f t="shared" si="1"/>
         <v>0.5878229785513488</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>285</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>2.9588900000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>4.9775554732513942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1422,20 +2967,28 @@
         <v>2.3746105670912631E-2</v>
       </c>
       <c r="L17">
+        <f t="shared" si="0"/>
+        <v>4.9533704035077601</v>
+      </c>
+      <c r="M17">
         <v>112</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
+      <c r="N17">
+        <f t="shared" si="1"/>
         <v>0.57040725875414666</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>324</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>1.80576E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>6.5137812903634149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1470,20 +3023,28 @@
         <v>1.9141044961146311E-2</v>
       </c>
       <c r="L18">
+        <f t="shared" si="0"/>
+        <v>4.9660703148736225</v>
+      </c>
+      <c r="M18">
         <v>113</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
+      <c r="N18">
+        <f t="shared" si="1"/>
         <v>0.56755522246037593</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>339</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>1.0656199999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>8.9202319004157236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1518,20 +3079,28 @@
         <v>1.0331340777537411E-2</v>
       </c>
       <c r="L19">
+        <f t="shared" si="0"/>
+        <v>7.1095720592762044</v>
+      </c>
+      <c r="M19">
         <v>139</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
+      <c r="N19">
+        <f t="shared" si="1"/>
         <v>0.49820516271462467</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>377</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>6.4533000000000004E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>11.381992426640767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1566,20 +3135,28 @@
         <v>5.8630888751574654E-3</v>
       </c>
       <c r="L20">
+        <f t="shared" si="0"/>
+        <v>10.111764598064807</v>
+      </c>
+      <c r="M20">
         <v>162</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
+      <c r="N20">
+        <f t="shared" si="1"/>
         <v>0.4439551321314546</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>408</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>3.6037E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>16.451473353254951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1614,20 +3191,28 @@
         <v>4.8704717243094097E-3</v>
       </c>
       <c r="L21">
+        <f t="shared" si="0"/>
+        <v>9.1931062429303445</v>
+      </c>
+      <c r="M21">
         <v>158</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
+      <c r="N21">
+        <f t="shared" si="1"/>
         <v>0.45294634323474448</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>416</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>1.8531999999999999E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>24.160783517572067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1662,20 +3247,28 @@
         <v>2.5510799189319292E-3</v>
       </c>
       <c r="L22">
+        <f t="shared" si="0"/>
+        <v>13.588851529402264</v>
+      </c>
+      <c r="M22">
         <v>185</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
+      <c r="N22">
+        <f t="shared" si="1"/>
         <v>0.3956124386024385</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>438</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>9.7550000000000002E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>35.536900315741214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1710,20 +3303,28 @@
         <v>2.448927807603302E-3</v>
       </c>
       <c r="L23">
+        <f t="shared" si="0"/>
+        <v>10.89288625839648</v>
+      </c>
+      <c r="M23">
         <v>170</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
+      <c r="N23">
+        <f t="shared" si="1"/>
         <v>0.4265046070983024</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>464</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>4.6729999999999997E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>57.085153141979518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1758,20 +3359,28 @@
         <v>1.5518148649686929E-3</v>
       </c>
       <c r="L24">
+        <f t="shared" si="0"/>
+        <v>13.107216017191083</v>
+      </c>
+      <c r="M24">
         <v>183</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
+      <c r="N24">
+        <f t="shared" si="1"/>
         <v>0.39959843297132747</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>484</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>2.229E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>91.251559685208036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1806,20 +3415,28 @@
         <v>1.2954441650786131E-3</v>
       </c>
       <c r="L25">
+        <f t="shared" si="0"/>
+        <v>11.348996142486774</v>
+      </c>
+      <c r="M25">
         <v>176</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
+      <c r="N25">
+        <f t="shared" si="1"/>
         <v>0.41386834584198789</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>510</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>1.026E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>143.29425762460215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1854,20 +3471,28 @@
         <v>8.6739235765539351E-4</v>
       </c>
       <c r="L26">
+        <f t="shared" si="0"/>
+        <v>12.463314329692077</v>
+      </c>
+      <c r="M26">
         <v>184</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
+      <c r="N26">
+        <f t="shared" si="1"/>
         <v>0.39760044080647089</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>536</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <v>4.4799999999999998E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>241.3076696569612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1902,20 +3527,28 @@
         <v>7.4239478544462151E-4</v>
       </c>
       <c r="L27">
+        <f t="shared" si="0"/>
+        <v>10.604768872948153</v>
+      </c>
+      <c r="M27">
         <v>174</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
+      <c r="N27">
+        <f t="shared" si="1"/>
         <v>0.41803827766166302</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>583</v>
       </c>
-      <c r="O27" s="2">
+      <c r="P27" s="2">
         <v>1.9000000000000001E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>414.36447958537599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1950,17 +3583,21 @@
         <v>4.5191075561145928E-4</v>
       </c>
       <c r="L28">
+        <f t="shared" si="0"/>
+        <v>12.454378239302876</v>
+      </c>
+      <c r="M28">
         <v>187</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
+      <c r="N28">
+        <f t="shared" si="1"/>
         <v>0.39166620452737916</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>618</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1995,17 +3632,21 @@
         <v>3.4650064046741908E-4</v>
       </c>
       <c r="L29">
+        <f t="shared" si="0"/>
+        <v>11.462723814845447</v>
+      </c>
+      <c r="M29">
         <v>183</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
+      <c r="N29">
+        <f t="shared" si="1"/>
         <v>0.39959843297132747</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>606</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2040,17 +3681,21 @@
         <v>1.099223626773884E-4</v>
       </c>
       <c r="L30">
+        <f t="shared" si="0"/>
+        <v>25.422180004523277</v>
+      </c>
+      <c r="M30">
         <v>238</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
+      <c r="N30">
+        <f t="shared" si="1"/>
         <v>0.30331453153725907</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>662</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2085,17 +3730,21 @@
         <v>9.745540794700576E-5</v>
       </c>
       <c r="L31">
+        <f t="shared" si="0"/>
+        <v>19.90240538481666</v>
+      </c>
+      <c r="M31">
         <v>223</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
+      <c r="N31">
+        <f t="shared" si="1"/>
         <v>0.32699943802956782</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>679</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2130,17 +3779,21 @@
         <v>4.4795460358943681E-5</v>
       </c>
       <c r="L32">
+        <f t="shared" si="0"/>
+        <v>29.283217258025594</v>
+      </c>
+      <c r="M32">
         <v>252</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
+      <c r="N32">
+        <f t="shared" si="1"/>
         <v>0.28275894195540657</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>755</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2175,17 +3828,21 @@
         <v>3.7207252013360522E-5</v>
       </c>
       <c r="L33">
+        <f t="shared" si="0"/>
+        <v>23.800957794392836</v>
+      </c>
+      <c r="M33">
         <v>240</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
+      <c r="N33">
+        <f t="shared" si="1"/>
         <v>0.30028896908517488</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>785</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -2220,17 +3877,21 @@
         <v>6.6936589433679348E-6</v>
       </c>
       <c r="L34">
+        <f t="shared" si="0"/>
+        <v>90.162420156598515</v>
+      </c>
+      <c r="M34">
         <v>330</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
+      <c r="N34">
+        <f t="shared" si="1"/>
         <v>0.19125669472892198</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>745</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2265,17 +3926,21 @@
         <v>2.3829749900449889E-6</v>
       </c>
       <c r="L35">
+        <f t="shared" si="0"/>
+        <v>165.34607190952778</v>
+      </c>
+      <c r="M35">
         <v>373</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
+      <c r="N35">
+        <f t="shared" si="1"/>
         <v>0.15417328217978171</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>784</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2310,17 +3975,21 @@
         <v>2.9700209593469272E-6</v>
       </c>
       <c r="L36">
+        <f t="shared" si="0"/>
+        <v>86.551433754635653</v>
+      </c>
+      <c r="M36">
         <v>333</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
+      <c r="N36">
+        <f t="shared" si="1"/>
         <v>0.18840216465300599</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>834</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2355,17 +4024,21 @@
         <v>1.8358276123759021E-6</v>
       </c>
       <c r="L37">
+        <f t="shared" si="0"/>
+        <v>90.311009673574517</v>
+      </c>
+      <c r="M37">
         <v>338</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="0"/>
+      <c r="N37">
+        <f t="shared" si="1"/>
         <v>0.18373897616330628</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>816</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2400,17 +4073,21 @@
         <v>4.0980096959595978E-7</v>
       </c>
       <c r="L38">
+        <f t="shared" si="0"/>
+        <v>256.68179867528517</v>
+      </c>
+      <c r="M38">
         <v>411</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="0"/>
+      <c r="N38">
+        <f t="shared" si="1"/>
         <v>0.12743425563174862</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>949</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2445,17 +4122,21 @@
         <v>4.119759375536274E-7</v>
       </c>
       <c r="L39">
+        <f t="shared" si="0"/>
+        <v>165.10837280792251</v>
+      </c>
+      <c r="M39">
         <v>383</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="0"/>
+      <c r="N39">
+        <f t="shared" si="1"/>
         <v>0.14663577052834847</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>906</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2490,17 +4171,21 @@
         <v>1.152994034999871E-7</v>
       </c>
       <c r="L40">
+        <f t="shared" si="0"/>
+        <v>377.25000903502519</v>
+      </c>
+      <c r="M40">
         <v>441</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="0"/>
+      <c r="N40">
+        <f t="shared" si="1"/>
         <v>0.1096424190539729</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>949</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2535,17 +4220,21 @@
         <v>9.9642715279229215E-8</v>
       </c>
       <c r="L41">
+        <f t="shared" si="0"/>
+        <v>277.22073587140176</v>
+      </c>
+      <c r="M41">
         <v>423</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="0"/>
+      <c r="N41">
+        <f t="shared" si="1"/>
         <v>0.11999500148501127</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>1038</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -2580,17 +4269,21 @@
         <v>2.961577483404098E-8</v>
       </c>
       <c r="L42">
+        <f t="shared" si="0"/>
+        <v>596.36186144851968</v>
+      </c>
+      <c r="M42">
         <v>477</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="0"/>
+      <c r="N42">
+        <f t="shared" si="1"/>
         <v>9.1539706516458583E-2</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>1081</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2625,17 +4318,21 @@
         <v>2.802560041225484E-8</v>
       </c>
       <c r="L43">
+        <f t="shared" si="0"/>
+        <v>391.90245936070784</v>
+      </c>
+      <c r="M43">
         <v>453</v>
       </c>
-      <c r="M43">
-        <f t="shared" si="0"/>
+      <c r="N43">
+        <f t="shared" si="1"/>
         <v>0.10324180238648423</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>1089</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2670,17 +4367,21 @@
         <v>7.5004725605900429E-9</v>
       </c>
       <c r="L44">
+        <f t="shared" si="0"/>
+        <v>947.46071545786037</v>
+      </c>
+      <c r="M44">
         <v>514</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="0"/>
+      <c r="N44">
+        <f t="shared" si="1"/>
         <v>7.6043746131408019E-2</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>1072</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -2715,17 +4416,21 @@
         <v>4.5854170501793757E-9</v>
       </c>
       <c r="L45">
+        <f t="shared" si="0"/>
+        <v>951.53601815240165</v>
+      </c>
+      <c r="M45">
         <v>519</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="0"/>
+      <c r="N45">
+        <f t="shared" si="1"/>
         <v>7.416156859737208E-2</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>1205</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -2760,17 +4465,21 @@
         <v>7.0240561449092297E-9</v>
       </c>
       <c r="L46">
+        <f t="shared" si="0"/>
+        <v>389.0795982667953</v>
+      </c>
+      <c r="M46">
         <v>464</v>
       </c>
-      <c r="M46">
-        <f t="shared" si="0"/>
+      <c r="N46">
+        <f t="shared" si="1"/>
         <v>9.7703352516643791E-2</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>1143</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2805,17 +4514,21 @@
         <v>2.2162897032089461E-10</v>
       </c>
       <c r="L47">
+        <f t="shared" si="0"/>
+        <v>7969.3194411396453</v>
+      </c>
+      <c r="M47">
         <v>666</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="0"/>
+      <c r="N47">
+        <f t="shared" si="1"/>
         <v>3.5495375645938382E-2</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>1173</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2849,21 +4562,22 @@
       <c r="K48" t="s">
         <v>65</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>66</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>67</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O48">
     <sortCondition ref="B2:B48"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/qft_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E8F1379-EEA4-C74D-A994-9E5C62E48A0F}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73235ADB-0CA3-BA4E-84D2-2888665E0F33}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$B$2:$B$47</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$L$2:$L$47</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$B$2:$B$47</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet!$L$2:$L$47</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>file name</t>
   </si>
@@ -47,27 +41,9 @@
     <t>Qubits</t>
   </si>
   <si>
-    <t>CZ_gates</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
-    <t>fidelity</t>
-  </si>
-  <si>
-    <t>movement_fidelity</t>
-  </si>
-  <si>
-    <t>movement times</t>
-  </si>
-  <si>
-    <t>gate cycles</t>
-  </si>
-  <si>
-    <t>partitions</t>
-  </si>
-  <si>
     <t>Times</t>
   </si>
   <si>
@@ -248,16 +224,7 @@
     <t>0.995</t>
   </si>
   <si>
-    <t>inserted SWAP</t>
-  </si>
-  <si>
-    <t>gate_cycle</t>
-  </si>
-  <si>
     <t>Tetris(MCTS)</t>
-  </si>
-  <si>
-    <t>SWAP fidelity</t>
   </si>
   <si>
     <t>Enola</t>
@@ -265,6 +232,50 @@
   </si>
   <si>
     <t>Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fidelity(Rb = 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fidelity (Rb = sqrt(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Fidelity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth(DAC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#partition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SWAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth(Tetris)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#partitions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,12 +307,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -316,10 +333,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -358,7 +385,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -371,10 +398,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
               <a:t>QFT circuits</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" sz="1500" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -391,7 +418,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -410,8 +437,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -431,7 +458,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$47</c:f>
               <c:numCache>
@@ -577,13 +604,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet!$L$2:$L$46</c:f>
+              <c:f>Sheet!$L$2:$L$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0151685848370693</c:v>
                 </c:pt>
@@ -719,10 +746,13 @@
                 <c:pt idx="44">
                   <c:v>389.0795982667953</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>7969.3194411396453</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B4AE-EC4F-8804-FAE73DF9AD64}"/>
@@ -747,12 +777,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet!$Q$2:$Q$27</c:f>
+              <c:f>Sheet!$P$2:$P$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0341111414511606</c:v>
                 </c:pt>
@@ -831,10 +861,52 @@
                 <c:pt idx="25">
                   <c:v>414.36447958537599</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>786.4224602670821</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1411.0044116122144</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2579.7220016545093</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6179.0073491609865</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16534.028439538182</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37503.732784558415</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99495.939706120407</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>193567.631583671</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>501390.39099004923</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1495086.8007176868</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4064590.0334670348</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10645721.001135126</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31528730.092338789</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>168443886.99647629</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B4AE-EC4F-8804-FAE73DF9AD64}"/>
@@ -849,17 +921,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1775790592"/>
         <c:axId val="1775792304"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1775790592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -867,7 +954,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -880,10 +967,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" sz="1500" baseline="0"/>
                   <a:t>Qubits</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -900,7 +987,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -938,7 +1025,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1030" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -955,11 +1042,10 @@
         </c:txPr>
         <c:crossAx val="1775792304"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1775792304"/>
         <c:scaling>
@@ -989,7 +1075,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -997,15 +1083,19 @@
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:ea typeface="+mj-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" sz="1500" baseline="0">
+                    <a:ea typeface="+mj-ea"/>
+                  </a:rPr>
                   <a:t>Ratio</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" sz="1500" baseline="0">
+                  <a:ea typeface="+mj-ea"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1022,7 +1112,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1030,7 +1120,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:ea typeface="+mj-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -1038,7 +1128,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[&lt;1000]0;[&gt;=1000]0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1054,7 +1144,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1071,7 +1161,7 @@
         </c:txPr>
         <c:crossAx val="1775790592"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1096,7 +1186,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1136,7 +1226,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1050" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -1709,16 +1799,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2031,15 +2121,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2047,54 +2151,66 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>14</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2105,7 +2221,7 @@
       <c r="D2">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.87779696953168596</v>
       </c>
       <c r="F2">
@@ -2123,7 +2239,7 @@
       <c r="J2">
         <v>9.1650485992431641E-3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>0.86468098268877081</v>
       </c>
       <c r="L2">
@@ -2134,23 +2250,34 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <f>POWER(0.995,M2)</f>
-        <v>0.995</v>
-      </c>
-      <c r="O2">
         <v>29</v>
       </c>
-      <c r="P2" s="1">
+      <c r="O2" s="3">
         <v>0.84884199999999999</v>
       </c>
-      <c r="Q2">
-        <f>E2/P2</f>
+      <c r="P2">
+        <f t="shared" ref="P2:P41" si="0">E2/O2</f>
         <v>1.0341111414511606</v>
       </c>
+      <c r="R2" s="5">
+        <v>0.87702085702489807</v>
+      </c>
+      <c r="S2">
+        <v>0.99982310553298115</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>26</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -2161,7 +2288,7 @@
       <c r="D3">
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.82067425442009301</v>
       </c>
       <c r="F3">
@@ -2179,34 +2306,45 @@
       <c r="J3">
         <v>1.038408279418945E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>0.77438165469602305</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L47" si="0">E3/K3</f>
+        <f t="shared" ref="L3:L47" si="1">E3/K3</f>
         <v>1.0597800831713164</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N47" si="1">POWER(0.995,M3)</f>
-        <v>0.98014950062500006</v>
-      </c>
-      <c r="O3">
         <v>48</v>
       </c>
-      <c r="P3" s="1">
+      <c r="O3" s="3">
         <v>0.77577300000000005</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q27" si="2">E3/P3</f>
+      <c r="P3">
+        <f t="shared" si="0"/>
         <v>1.0578793724711906</v>
       </c>
+      <c r="R3" s="5">
+        <v>0.82155313721542</v>
+      </c>
+      <c r="S3">
+        <v>0.99982609357029562</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>39</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -2217,7 +2355,7 @@
       <c r="D4">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.7727900718821914</v>
       </c>
       <c r="F4">
@@ -2235,34 +2373,45 @@
       <c r="J4">
         <v>1.037883758544922E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>0.70757094008172938</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0921732763543521</v>
       </c>
       <c r="M4">
         <v>6</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.97037250935626573</v>
-      </c>
-      <c r="O4">
         <v>51</v>
       </c>
-      <c r="P4" s="1">
+      <c r="O4" s="3">
         <v>0.71045639999999999</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="2"/>
+      <c r="P4">
+        <f t="shared" si="0"/>
         <v>1.0877375049083819</v>
       </c>
+      <c r="R4" s="5">
+        <v>0.77185444847412044</v>
+      </c>
+      <c r="S4">
+        <v>0.99953170226018451</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>51</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -2273,7 +2422,7 @@
       <c r="D5">
         <v>29</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.70910840016851939</v>
       </c>
       <c r="F5">
@@ -2291,34 +2440,45 @@
       <c r="J5">
         <v>1.22218132019043E-2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>0.61183047771356813</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.15899489482525</v>
       </c>
       <c r="M5">
         <v>10</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.95111013046577197</v>
-      </c>
-      <c r="O5">
         <v>70</v>
       </c>
-      <c r="P5" s="1">
+      <c r="O5" s="3">
         <v>0.61612259999999996</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="2"/>
+      <c r="P5">
+        <f t="shared" si="0"/>
         <v>1.1509209371130347</v>
       </c>
+      <c r="R5" s="5">
+        <v>0.70605575557746725</v>
+      </c>
+      <c r="S5">
+        <v>0.99910730368642853</v>
+      </c>
+      <c r="T5">
+        <v>15</v>
+      </c>
+      <c r="U5">
+        <v>68</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -2329,7 +2489,7 @@
       <c r="D6">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.65176521087298711</v>
       </c>
       <c r="F6">
@@ -2347,34 +2507,45 @@
       <c r="J6">
         <v>2.6430845260620121E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>0.55623957160452719</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1717347059521619</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.94635457981344306</v>
-      </c>
-      <c r="O6">
         <v>87</v>
       </c>
-      <c r="P6" s="1">
+      <c r="O6" s="3">
         <v>0.53904070000000004</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
+      <c r="P6">
+        <f t="shared" si="0"/>
         <v>1.2091205930702209</v>
       </c>
+      <c r="R6" s="5">
+        <v>0.64864836377758439</v>
+      </c>
+      <c r="S6">
+        <v>0.99869846902764681</v>
+      </c>
+      <c r="T6">
+        <v>22</v>
+      </c>
+      <c r="U6">
+        <v>84</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -2385,7 +2556,7 @@
       <c r="D7">
         <v>37</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.58499674067163598</v>
       </c>
       <c r="F7">
@@ -2403,34 +2574,45 @@
       <c r="J7">
         <v>1.9728899002075199E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>0.41795791056168169</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3996546683025466</v>
       </c>
       <c r="M7">
         <v>23</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.89110905578020905</v>
-      </c>
-      <c r="O7">
         <v>101</v>
       </c>
-      <c r="P7" s="1">
+      <c r="O7" s="3">
         <v>0.45099499999999998</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
+      <c r="P7">
+        <f t="shared" si="0"/>
         <v>1.297124670277134</v>
       </c>
+      <c r="R7" s="5">
+        <v>0.58505341343082817</v>
+      </c>
+      <c r="S7">
+        <v>0.99903927118543656</v>
+      </c>
+      <c r="T7">
+        <v>16</v>
+      </c>
+      <c r="U7">
+        <v>103</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -2441,7 +2623,7 @@
       <c r="D8">
         <v>41</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.52867823066827546</v>
       </c>
       <c r="F8">
@@ -2459,34 +2641,45 @@
       <c r="J8">
         <v>2.2444009780883789E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0.32043326026404961</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6498856274552267</v>
       </c>
       <c r="M8">
         <v>34</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.84330513605083379</v>
-      </c>
-      <c r="O8">
         <v>124</v>
       </c>
-      <c r="P8" s="1">
+      <c r="O8" s="3">
         <v>0.38296980000000003</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
+      <c r="P8">
+        <f t="shared" si="0"/>
         <v>1.3804697672460737</v>
       </c>
+      <c r="R8" s="5">
+        <v>0.52662258037638909</v>
+      </c>
+      <c r="S8">
+        <v>0.99867881668343128</v>
+      </c>
+      <c r="T8">
+        <v>22</v>
+      </c>
+      <c r="U8">
+        <v>121</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -2497,7 +2690,7 @@
       <c r="D9">
         <v>45</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.46349896162693321</v>
       </c>
       <c r="F9">
@@ -2515,34 +2708,45 @@
       <c r="J9">
         <v>3.6398172378540039E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>0.26617872213713478</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7413073363096974</v>
       </c>
       <c r="M9">
         <v>38</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
-        <v>0.82656510797472249</v>
-      </c>
-      <c r="O9">
         <v>146</v>
       </c>
-      <c r="P9" s="1">
+      <c r="O9" s="3">
         <v>0.3052106</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
+      <c r="P9">
+        <f t="shared" si="0"/>
         <v>1.5186201318923169</v>
       </c>
+      <c r="R9" s="5">
+        <v>0.46220699416543748</v>
+      </c>
+      <c r="S9">
+        <v>0.99836377546157518</v>
+      </c>
+      <c r="T9">
+        <v>27</v>
+      </c>
+      <c r="U9">
+        <v>144</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -2553,7 +2757,7 @@
       <c r="D10">
         <v>49</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0.40904840680085092</v>
       </c>
       <c r="F10">
@@ -2571,34 +2775,45 @@
       <c r="J10">
         <v>3.1484127044677727E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.1970340444262563</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0760290841715174</v>
       </c>
       <c r="M10">
         <v>50</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0.77831255706864233</v>
-      </c>
-      <c r="O10">
         <v>168</v>
       </c>
-      <c r="P10" s="1">
+      <c r="O10" s="3">
         <v>0.23888619999999999</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
+      <c r="P10">
+        <f t="shared" si="0"/>
         <v>1.7123149298739355</v>
       </c>
+      <c r="R10" s="5">
+        <v>0.40695464764864459</v>
+      </c>
+      <c r="S10">
+        <v>0.99795542223654277</v>
+      </c>
+      <c r="T10">
+        <v>34</v>
+      </c>
+      <c r="U10">
+        <v>166</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -2609,7 +2824,7 @@
       <c r="D11">
         <v>53</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.35069420594030049</v>
       </c>
       <c r="F11">
@@ -2627,34 +2842,45 @@
       <c r="J11">
         <v>5.5038213729858398E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>0.18928216916161239</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8527588070954095</v>
       </c>
       <c r="M11">
         <v>43</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
-        <v>0.80610659092639603</v>
-      </c>
-      <c r="O11">
         <v>186</v>
       </c>
-      <c r="P11" s="1">
+      <c r="O11" s="3">
         <v>0.17537459999999999</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
+      <c r="P11">
+        <f t="shared" si="0"/>
         <v>1.9996864194718078</v>
       </c>
+      <c r="R11" s="5">
+        <v>0.34847022288119622</v>
+      </c>
+      <c r="S11">
+        <v>0.99740884101127592</v>
+      </c>
+      <c r="T11">
+        <v>43</v>
+      </c>
+      <c r="U11">
+        <v>193</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>15</v>
@@ -2665,7 +2891,7 @@
       <c r="D12">
         <v>57</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0.30324492144296028</v>
       </c>
       <c r="F12">
@@ -2683,34 +2909,45 @@
       <c r="J12">
         <v>5.382084846496582E-2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>0.13326140707084341</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2755644571706459</v>
       </c>
       <c r="M12">
         <v>57</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
-        <v>0.75147684352085931</v>
-      </c>
-      <c r="O12">
         <v>213</v>
       </c>
-      <c r="P12" s="1">
+      <c r="O12" s="3">
         <v>0.1347247</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
+      <c r="P12">
+        <f t="shared" si="0"/>
         <v>2.250848741492542</v>
       </c>
+      <c r="R12" s="5">
+        <v>0.30169234309011889</v>
+      </c>
+      <c r="S12">
+        <v>0.9973334847431965</v>
+      </c>
+      <c r="T12">
+        <v>44</v>
+      </c>
+      <c r="U12">
+        <v>215</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>16</v>
@@ -2721,7 +2958,7 @@
       <c r="D13">
         <v>61</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0.25404609843818488</v>
       </c>
       <c r="F13">
@@ -2739,34 +2976,45 @@
       <c r="J13">
         <v>5.7142019271850593E-2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>0.11125506264545799</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2834565223136507</v>
       </c>
       <c r="M13">
         <v>58</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
-        <v>0.74771945930325501</v>
-      </c>
-      <c r="O13">
         <v>232</v>
       </c>
-      <c r="P13" s="1">
+      <c r="O13" s="3">
         <v>6.3742599999999996E-2</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="2"/>
+      <c r="P13">
+        <f t="shared" si="0"/>
         <v>3.9854994687726086</v>
       </c>
+      <c r="R13" s="5">
+        <v>0.25231181791841978</v>
+      </c>
+      <c r="S13">
+        <v>0.99667418392693985</v>
+      </c>
+      <c r="T13">
+        <v>55</v>
+      </c>
+      <c r="U13">
+        <v>240</v>
+      </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>17</v>
@@ -2777,7 +3025,7 @@
       <c r="D14">
         <v>65</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.21558143221232071</v>
       </c>
       <c r="F14">
@@ -2795,34 +3043,45 @@
       <c r="J14">
         <v>9.6461057662963867E-2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>6.4081695381845702E-2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.364165553481826</v>
       </c>
       <c r="M14">
         <v>84</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
-        <v>0.65635497682884381</v>
-      </c>
-      <c r="O14">
         <v>239</v>
       </c>
-      <c r="P14" s="1">
+      <c r="O14" s="3">
         <v>6.3742599999999996E-2</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
+      <c r="P14">
+        <f t="shared" si="0"/>
         <v>3.3820621093636078</v>
       </c>
+      <c r="R14" s="5">
+        <v>0.21399752511596701</v>
+      </c>
+      <c r="S14">
+        <v>0.99662009053422529</v>
+      </c>
+      <c r="T14">
+        <v>55</v>
+      </c>
+      <c r="U14">
+        <v>248</v>
+      </c>
+      <c r="V14">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -2833,7 +3092,7 @@
       <c r="D15">
         <v>69</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>0.177078559586207</v>
       </c>
       <c r="F15">
@@ -2851,34 +3110,45 @@
       <c r="J15">
         <v>7.919001579284668E-2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>4.7909911351535182E-2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6960736221552799</v>
       </c>
       <c r="M15">
         <v>91</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>0.63372428176440931</v>
-      </c>
-      <c r="O15">
         <v>274</v>
       </c>
-      <c r="P15" s="1">
+      <c r="O15" s="3">
         <v>4.3829100000000003E-2</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="2"/>
+      <c r="P15">
+        <f t="shared" si="0"/>
         <v>4.0402052423209005</v>
       </c>
+      <c r="R15" s="5">
+        <v>0.17465608309018429</v>
+      </c>
+      <c r="S15">
+        <v>0.99583454130583171</v>
+      </c>
+      <c r="T15">
+        <v>67</v>
+      </c>
+      <c r="U15">
+        <v>279</v>
+      </c>
+      <c r="V15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -2889,7 +3159,7 @@
       <c r="D16">
         <v>73</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>0.1472803911424882</v>
       </c>
       <c r="F16">
@@ -2907,34 +3177,45 @@
       <c r="J16">
         <v>7.3206186294555664E-2</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>3.1921528162708337E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6138264556690443</v>
       </c>
       <c r="M16">
         <v>106</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>0.5878229785513488</v>
-      </c>
-      <c r="O16">
         <v>285</v>
       </c>
-      <c r="P16" s="1">
+      <c r="O16" s="3">
         <v>2.9588900000000001E-2</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="2"/>
+      <c r="P16">
+        <f t="shared" si="0"/>
         <v>4.9775554732513942</v>
       </c>
+      <c r="R16" s="5">
+        <v>0.145134831169943</v>
+      </c>
+      <c r="S16">
+        <v>0.99581138459798857</v>
+      </c>
+      <c r="T16">
+        <v>68</v>
+      </c>
+      <c r="U16">
+        <v>301</v>
+      </c>
+      <c r="V16">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -2945,7 +3226,7 @@
       <c r="D17">
         <v>77</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>0.1176232570288664</v>
       </c>
       <c r="F17">
@@ -2963,34 +3244,45 @@
       <c r="J17">
         <v>0.10234618186950679</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>2.3746105670912631E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9533704035077601</v>
       </c>
       <c r="M17">
         <v>112</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
-        <v>0.57040725875414666</v>
-      </c>
-      <c r="O17">
         <v>324</v>
       </c>
-      <c r="P17" s="1">
+      <c r="O17" s="3">
         <v>1.80576E-2</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="2"/>
+      <c r="P17">
+        <f t="shared" si="0"/>
         <v>6.5137812903634149</v>
       </c>
+      <c r="R17" s="5">
+        <v>0.11605806476071009</v>
+      </c>
+      <c r="S17">
+        <v>0.99512745087762711</v>
+      </c>
+      <c r="T17">
+        <v>79</v>
+      </c>
+      <c r="U17">
+        <v>333</v>
+      </c>
+      <c r="V17">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -3001,7 +3293,7 @@
       <c r="D18">
         <v>81</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>9.505577517721002E-2</v>
       </c>
       <c r="F18">
@@ -3019,34 +3311,45 @@
       <c r="J18">
         <v>8.771514892578125E-2</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>1.9141044961146311E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9660703148736225</v>
       </c>
       <c r="M18">
         <v>113</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>0.56755522246037593</v>
-      </c>
-      <c r="O18">
         <v>339</v>
       </c>
-      <c r="P18" s="1">
+      <c r="O18" s="3">
         <v>1.0656199999999999E-2</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="2"/>
+      <c r="P18">
+        <f t="shared" si="0"/>
         <v>8.9202319004157236</v>
       </c>
+      <c r="R18" s="5">
+        <v>9.1917307138097731E-2</v>
+      </c>
+      <c r="S18">
+        <v>0.99381673266172821</v>
+      </c>
+      <c r="T18">
+        <v>100</v>
+      </c>
+      <c r="U18">
+        <v>368</v>
+      </c>
+      <c r="V18">
+        <v>11</v>
+      </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -3057,7 +3360,7 @@
       <c r="D19">
         <v>85</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>7.3451411726840873E-2</v>
       </c>
       <c r="F19">
@@ -3075,34 +3378,45 @@
       <c r="J19">
         <v>0.1859278678894043</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>1.0331340777537411E-2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1095720592762044</v>
       </c>
       <c r="M19">
         <v>139</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>0.49820516271462467</v>
-      </c>
-      <c r="O19">
         <v>377</v>
       </c>
-      <c r="P19" s="1">
+      <c r="O19" s="3">
         <v>6.4533000000000004E-3</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="2"/>
+      <c r="P19">
+        <f t="shared" si="0"/>
         <v>11.381992426640767</v>
       </c>
+      <c r="R19" s="5">
+        <v>7.3071569059736649E-2</v>
+      </c>
+      <c r="S19">
+        <v>0.99392718797037927</v>
+      </c>
+      <c r="T19">
+        <v>98</v>
+      </c>
+      <c r="U19">
+        <v>397</v>
+      </c>
+      <c r="V19">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>23</v>
@@ -3113,7 +3427,7 @@
       <c r="D20">
         <v>89</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>5.9286174523124867E-2</v>
       </c>
       <c r="F20">
@@ -3131,34 +3445,45 @@
       <c r="J20">
         <v>0.1141440868377686</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>5.8630888751574654E-3</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.111764598064807</v>
       </c>
       <c r="M20">
         <v>162</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
-        <v>0.4439551321314546</v>
-      </c>
-      <c r="O20">
         <v>408</v>
       </c>
-      <c r="P20" s="1">
+      <c r="O20" s="3">
         <v>3.6037E-3</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="2"/>
+      <c r="P20">
+        <f t="shared" si="0"/>
         <v>16.451473353254951</v>
       </c>
+      <c r="R20" s="5">
+        <v>5.6894838003504908E-2</v>
+      </c>
+      <c r="S20">
+        <v>0.992913692938176</v>
+      </c>
+      <c r="T20">
+        <v>114</v>
+      </c>
+      <c r="U20">
+        <v>423</v>
+      </c>
+      <c r="V20">
+        <v>12</v>
+      </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -3169,7 +3494,7 @@
       <c r="D21">
         <v>93</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>4.4774764014764552E-2</v>
       </c>
       <c r="F21">
@@ -3187,34 +3512,45 @@
       <c r="J21">
         <v>0.1168727874755859</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>4.8704717243094097E-3</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1931062429303445</v>
       </c>
       <c r="M21">
         <v>158</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>0.45294634323474448</v>
-      </c>
-      <c r="O21">
         <v>416</v>
       </c>
-      <c r="P21" s="1">
+      <c r="O21" s="3">
         <v>1.8531999999999999E-3</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="2"/>
+      <c r="P21">
+        <f t="shared" si="0"/>
         <v>24.160783517572067</v>
       </c>
+      <c r="R21" s="5">
+        <v>4.3333129817314887E-2</v>
+      </c>
+      <c r="S21">
+        <v>0.99211170959166273</v>
+      </c>
+      <c r="T21">
+        <v>127</v>
+      </c>
+      <c r="U21">
+        <v>460</v>
+      </c>
+      <c r="V21">
+        <v>13</v>
+      </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -3225,7 +3561,7 @@
       <c r="D22">
         <v>97</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>3.4666246258005552E-2</v>
       </c>
       <c r="F22">
@@ -3243,34 +3579,45 @@
       <c r="J22">
         <v>0.1260790824890137</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>2.5510799189319292E-3</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.588851529402264</v>
       </c>
       <c r="M22">
         <v>185</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
-        <v>0.3956124386024385</v>
-      </c>
-      <c r="O22">
         <v>438</v>
       </c>
-      <c r="P22" s="1">
+      <c r="O22" s="3">
         <v>9.7550000000000002E-4</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="2"/>
+      <c r="P22">
+        <f t="shared" si="0"/>
         <v>35.536900315741214</v>
       </c>
+      <c r="R22" s="5">
+        <v>3.2515600347048187E-2</v>
+      </c>
+      <c r="S22">
+        <v>0.99058420242037803</v>
+      </c>
+      <c r="T22">
+        <v>151</v>
+      </c>
+      <c r="U22">
+        <v>490</v>
+      </c>
+      <c r="V22">
+        <v>14</v>
+      </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -3281,7 +3628,7 @@
       <c r="D23">
         <v>101</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>2.6675892063247029E-2</v>
       </c>
       <c r="F23">
@@ -3299,34 +3646,45 @@
       <c r="J23">
         <v>0.19232320785522461</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>2.448927807603302E-3</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.89288625839648</v>
       </c>
       <c r="M23">
         <v>170</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>0.4265046070983024</v>
-      </c>
-      <c r="O23">
         <v>464</v>
       </c>
-      <c r="P23" s="1">
+      <c r="O23" s="3">
         <v>4.6729999999999997E-4</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="2"/>
+      <c r="P23">
+        <f t="shared" si="0"/>
         <v>57.085153141979518</v>
       </c>
+      <c r="R23" s="5">
+        <v>2.59806834163764E-2</v>
+      </c>
+      <c r="S23">
+        <v>0.99252138787088706</v>
+      </c>
+      <c r="T23">
+        <v>121</v>
+      </c>
+      <c r="U23">
+        <v>484</v>
+      </c>
+      <c r="V23">
+        <v>14</v>
+      </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -3337,7 +3695,7 @@
       <c r="D24">
         <v>105</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>2.0339972653832871E-2</v>
       </c>
       <c r="F24">
@@ -3355,34 +3713,45 @@
       <c r="J24">
         <v>0.1628007888793945</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>1.5518148649686929E-3</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.107216017191083</v>
       </c>
       <c r="M24">
         <v>183</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>0.39959843297132747</v>
-      </c>
-      <c r="O24">
         <v>484</v>
       </c>
-      <c r="P24" s="1">
+      <c r="O24" s="3">
         <v>2.229E-4</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
+      <c r="P24">
+        <f t="shared" si="0"/>
         <v>91.251559685208036</v>
       </c>
+      <c r="R24" s="5">
+        <v>1.941011296200627E-2</v>
+      </c>
+      <c r="S24">
+        <v>0.9916679143426399</v>
+      </c>
+      <c r="T24">
+        <v>134</v>
+      </c>
+      <c r="U24">
+        <v>516</v>
+      </c>
+      <c r="V24">
+        <v>15</v>
+      </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>28</v>
@@ -3393,7 +3762,7 @@
       <c r="D25">
         <v>109</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>1.4701990832284181E-2</v>
       </c>
       <c r="F25">
@@ -3411,34 +3780,45 @@
       <c r="J25">
         <v>0.20358800888061521</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>1.2954441650786131E-3</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.348996142486774</v>
       </c>
       <c r="M25">
         <v>176</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>0.41386834584198789</v>
-      </c>
-      <c r="O25">
         <v>510</v>
       </c>
-      <c r="P25" s="1">
+      <c r="O25" s="3">
         <v>1.026E-4</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="2"/>
+      <c r="P25">
+        <f t="shared" si="0"/>
         <v>143.29425762460215</v>
       </c>
+      <c r="R25" s="5">
+        <v>1.429610982598003E-2</v>
+      </c>
+      <c r="S25">
+        <v>0.99125847965775093</v>
+      </c>
+      <c r="T25">
+        <v>141</v>
+      </c>
+      <c r="U25">
+        <v>543</v>
+      </c>
+      <c r="V25">
+        <v>15</v>
+      </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>29</v>
@@ -3449,7 +3829,7 @@
       <c r="D26">
         <v>113</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>1.0810583600631861E-2</v>
       </c>
       <c r="F26">
@@ -3467,34 +3847,45 @@
       <c r="J26">
         <v>0.17937684059143069</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>8.6739235765539351E-4</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.463314329692077</v>
       </c>
       <c r="M26">
         <v>184</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
-        <v>0.39760044080647089</v>
-      </c>
-      <c r="O26">
         <v>536</v>
       </c>
-      <c r="P26" s="2">
+      <c r="O26" s="4">
         <v>4.4799999999999998E-5</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="2"/>
+      <c r="P26">
+        <f t="shared" si="0"/>
         <v>241.3076696569612</v>
       </c>
+      <c r="R26" s="5">
+        <v>1.0423967616887519E-2</v>
+      </c>
+      <c r="S26">
+        <v>0.99036237369020519</v>
+      </c>
+      <c r="T26">
+        <v>154</v>
+      </c>
+      <c r="U26">
+        <v>570</v>
+      </c>
+      <c r="V26">
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>30</v>
@@ -3505,7 +3896,7 @@
       <c r="D27">
         <v>117</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>7.8729251121221443E-3</v>
       </c>
       <c r="F27">
@@ -3523,34 +3914,45 @@
       <c r="J27">
         <v>0.21874809265136719</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>7.4239478544462151E-4</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.604768872948153</v>
       </c>
       <c r="M27">
         <v>174</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
-        <v>0.41803827766166302</v>
-      </c>
-      <c r="O27">
         <v>583</v>
       </c>
-      <c r="P27" s="2">
+      <c r="O27" s="4">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="2"/>
+      <c r="P27">
+        <f t="shared" si="0"/>
         <v>414.36447958537599</v>
       </c>
+      <c r="R27" s="5">
+        <v>7.2751265956132721E-3</v>
+      </c>
+      <c r="S27">
+        <v>0.98891244852004934</v>
+      </c>
+      <c r="T27">
+        <v>177</v>
+      </c>
+      <c r="U27">
+        <v>614</v>
+      </c>
+      <c r="V27">
+        <v>17</v>
+      </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>31</v>
@@ -3561,7 +3963,7 @@
       <c r="D28">
         <v>121</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>5.6282674807942787E-3</v>
       </c>
       <c r="F28">
@@ -3579,27 +3981,45 @@
       <c r="J28">
         <v>0.28408312797546392</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="2">
         <v>4.5191075561145928E-4</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.454378239302876</v>
       </c>
       <c r="M28">
         <v>187</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
-        <v>0.39166620452737916</v>
-      </c>
-      <c r="O28">
         <v>618</v>
       </c>
+      <c r="O28" s="6">
+        <v>7.1567990045488096E-6</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>786.4224602670821</v>
+      </c>
+      <c r="R28" s="5">
+        <v>5.3177945562010356E-3</v>
+      </c>
+      <c r="S28">
+        <v>0.98886904680308685</v>
+      </c>
+      <c r="T28">
+        <v>177</v>
+      </c>
+      <c r="U28">
+        <v>630</v>
+      </c>
+      <c r="V28">
+        <v>17</v>
+      </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>32</v>
@@ -3610,7 +4030,7 @@
       <c r="D29">
         <v>125</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>3.9718411433450843E-3</v>
       </c>
       <c r="F29">
@@ -3628,27 +4048,45 @@
       <c r="J29">
         <v>0.21737790107727051</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>3.4650064046741908E-4</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.462723814845447</v>
       </c>
       <c r="M29">
         <v>183</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
-        <v>0.39959843297132747</v>
-      </c>
-      <c r="O29">
         <v>606</v>
       </c>
+      <c r="O29" s="6">
+        <v>2.81490341961926E-6</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>1411.0044116122144</v>
+      </c>
+      <c r="R29" s="5">
+        <v>3.551815659899643E-3</v>
+      </c>
+      <c r="S29">
+        <v>0.9868214886940897</v>
+      </c>
+      <c r="T29">
+        <v>208</v>
+      </c>
+      <c r="U29">
+        <v>674</v>
+      </c>
+      <c r="V29">
+        <v>18</v>
+      </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>33</v>
@@ -3659,7 +4097,7 @@
       <c r="D30">
         <v>129</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>2.7944660905070591E-3</v>
       </c>
       <c r="F30">
@@ -3677,27 +4115,45 @@
       <c r="J30">
         <v>0.23375272750854489</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>1.099223626773884E-4</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.422180004523277</v>
       </c>
       <c r="M30">
         <v>238</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
-        <v>0.30331453153725907</v>
-      </c>
-      <c r="O30">
         <v>662</v>
       </c>
+      <c r="O30" s="6">
+        <v>1.08324311251942E-6</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>2579.7220016545093</v>
+      </c>
+      <c r="R30" s="5">
+        <v>2.414115541330556E-3</v>
+      </c>
+      <c r="S30">
+        <v>0.98527383004305691</v>
+      </c>
+      <c r="T30">
+        <v>232</v>
+      </c>
+      <c r="U30">
+        <v>715</v>
+      </c>
+      <c r="V30">
+        <v>19</v>
+      </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>34</v>
@@ -3708,7 +4164,7 @@
       <c r="D31">
         <v>133</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>1.939597035903992E-3</v>
       </c>
       <c r="F31">
@@ -3726,27 +4182,45 @@
       <c r="J31">
         <v>0.29878997802734381</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <v>9.745540794700576E-5</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.90240538481666</v>
       </c>
       <c r="M31">
         <v>223</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
-        <v>0.32699943802956782</v>
-      </c>
-      <c r="O31">
         <v>679</v>
       </c>
+      <c r="O31" s="6">
+        <v>3.13901072826424E-7</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>6179.0073491609865</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1.684652196583648E-3</v>
+      </c>
+      <c r="S31">
+        <v>0.985306874227449</v>
+      </c>
+      <c r="T31">
+        <v>231</v>
+      </c>
+      <c r="U31">
+        <v>743</v>
+      </c>
+      <c r="V31">
+        <v>19</v>
+      </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>35</v>
@@ -3757,7 +4231,7 @@
       <c r="D32">
         <v>137</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>1.3117551978642211E-3</v>
       </c>
       <c r="F32">
@@ -3775,27 +4249,45 @@
       <c r="J32">
         <v>0.26644492149353027</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>4.4795460358943681E-5</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.283217258025594</v>
       </c>
       <c r="M32">
         <v>252</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
-        <v>0.28275894195540657</v>
-      </c>
-      <c r="O32">
         <v>755</v>
       </c>
+      <c r="O32" s="6">
+        <v>7.9336696598839297E-8</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>16534.028439538182</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1.1215154308106001E-3</v>
+      </c>
+      <c r="S32">
+        <v>0.98387198127519226</v>
+      </c>
+      <c r="T32">
+        <v>253</v>
+      </c>
+      <c r="U32">
+        <v>770</v>
+      </c>
+      <c r="V32">
+        <v>20</v>
+      </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>36</v>
@@ -3806,7 +4298,7 @@
       <c r="D33">
         <v>141</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>8.8556823481533166E-4</v>
       </c>
       <c r="F33">
@@ -3824,27 +4316,45 @@
       <c r="J33">
         <v>0.31439423561096191</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <v>3.7207252013360522E-5</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.800957794392836</v>
       </c>
       <c r="M33">
         <v>240</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
-        <v>0.30028896908517488</v>
-      </c>
-      <c r="O33">
         <v>785</v>
       </c>
+      <c r="O33" s="6">
+        <v>2.3612802488288601E-8</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>37503.732784558415</v>
+      </c>
+      <c r="R33" s="5">
+        <v>7.3976822001699466E-4</v>
+      </c>
+      <c r="S33">
+        <v>0.98295345160610326</v>
+      </c>
+      <c r="T33">
+        <v>267</v>
+      </c>
+      <c r="U33">
+        <v>813</v>
+      </c>
+      <c r="V33">
+        <v>21</v>
+      </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>37</v>
@@ -3855,7 +4365,7 @@
       <c r="D34">
         <v>145</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>6.0351649003691297E-4</v>
       </c>
       <c r="F34">
@@ -3873,27 +4383,45 @@
       <c r="J34">
         <v>0.48582029342651373</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>6.6936589433679348E-6</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.162420156598515</v>
       </c>
       <c r="M34">
         <v>330</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
-        <v>0.19125669472892198</v>
-      </c>
-      <c r="O34">
         <v>745</v>
       </c>
+      <c r="O34" s="6">
+        <v>6.0657398866678397E-9</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>99495.939706120407</v>
+      </c>
+      <c r="R34" s="5">
+        <v>5.6299394226943026E-4</v>
+      </c>
+      <c r="S34">
+        <v>0.9857456664780605</v>
+      </c>
+      <c r="T34">
+        <v>225</v>
+      </c>
+      <c r="U34">
+        <v>778</v>
+      </c>
+      <c r="V34">
+        <v>21</v>
+      </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>38</v>
@@ -3904,7 +4432,7 @@
       <c r="D35">
         <v>149</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>3.9401555406258498E-4</v>
       </c>
       <c r="F35">
@@ -3922,27 +4450,45 @@
       <c r="J35">
         <v>0.46057581901550287</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <v>2.3829749900449889E-6</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165.34607190952778</v>
       </c>
       <c r="M35">
         <v>373</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
-        <v>0.15417328217978171</v>
-      </c>
-      <c r="O35">
         <v>784</v>
       </c>
+      <c r="O35" s="6">
+        <v>2.0355446354276899E-9</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>193567.631583671</v>
+      </c>
+      <c r="R35" s="5">
+        <v>3.7602700484656789E-4</v>
+      </c>
+      <c r="S35">
+        <v>0.98566786611325474</v>
+      </c>
+      <c r="T35">
+        <v>226</v>
+      </c>
+      <c r="U35">
+        <v>816</v>
+      </c>
+      <c r="V35">
+        <v>21</v>
+      </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>39</v>
@@ -3953,7 +4499,7 @@
       <c r="D36">
         <v>153</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>2.5705957231279499E-4</v>
       </c>
       <c r="F36">
@@ -3971,27 +4517,45 @@
       <c r="J36">
         <v>0.39325499534606928</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <v>2.9700209593469272E-6</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86.551433754635653</v>
       </c>
       <c r="M36">
         <v>333</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
-        <v>0.18840216465300599</v>
-      </c>
-      <c r="O36">
         <v>834</v>
       </c>
+      <c r="O36" s="6">
+        <v>5.1269345590210301E-10</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>501390.39099004923</v>
+      </c>
+      <c r="R36" s="5">
+        <v>2.3734234376645869E-4</v>
+      </c>
+      <c r="S36">
+        <v>0.98403833110579564</v>
+      </c>
+      <c r="T36">
+        <v>252</v>
+      </c>
+      <c r="U36">
+        <v>843</v>
+      </c>
+      <c r="V36">
+        <v>22</v>
+      </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>40</v>
@@ -4002,7 +4566,7 @@
       <c r="D37">
         <v>157</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>1.6579544526029529E-4</v>
       </c>
       <c r="F37">
@@ -4020,27 +4584,45 @@
       <c r="J37">
         <v>0.45903301239013672</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <v>1.8358276123759021E-6</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.311009673574517</v>
       </c>
       <c r="M37">
         <v>338</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
-        <v>0.18373897616330628</v>
-      </c>
-      <c r="O37">
         <v>816</v>
       </c>
+      <c r="O37" s="6">
+        <v>1.1089352483127299E-10</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>1495086.8007176868</v>
+      </c>
+      <c r="R37" s="5">
+        <v>1.5012842543156549E-4</v>
+      </c>
+      <c r="S37">
+        <v>0.98316314190081944</v>
+      </c>
+      <c r="T37">
+        <v>265</v>
+      </c>
+      <c r="U37">
+        <v>883</v>
+      </c>
+      <c r="V37">
+        <v>23</v>
+      </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>41</v>
@@ -4051,7 +4633,7 @@
       <c r="D38">
         <v>161</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>1.0518844997476679E-4</v>
       </c>
       <c r="F38">
@@ -4069,27 +4651,45 @@
       <c r="J38">
         <v>0.39424705505371088</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="2">
         <v>4.0980096959595978E-7</v>
       </c>
       <c r="L38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>256.68179867528517</v>
       </c>
       <c r="M38">
         <v>411</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
-        <v>0.12743425563174862</v>
-      </c>
-      <c r="O38">
         <v>949</v>
       </c>
+      <c r="O38" s="6">
+        <v>2.58792274518871E-11</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>4064590.0334670348</v>
+      </c>
+      <c r="R38" s="5">
+        <v>9.5463282784391678E-5</v>
+      </c>
+      <c r="S38">
+        <v>0.98233723608524981</v>
+      </c>
+      <c r="T38">
+        <v>278</v>
+      </c>
+      <c r="U38">
+        <v>920</v>
+      </c>
+      <c r="V38">
+        <v>23</v>
+      </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>42</v>
@@ -4100,7 +4700,7 @@
       <c r="D39">
         <v>165</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>6.8020676685497718E-5</v>
       </c>
       <c r="F39">
@@ -4118,27 +4718,45 @@
       <c r="J39">
         <v>0.40506172180175781</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="2">
         <v>4.119759375536274E-7</v>
       </c>
       <c r="L39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165.10837280792251</v>
       </c>
       <c r="M39">
         <v>383</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
-        <v>0.14663577052834847</v>
-      </c>
-      <c r="O39">
         <v>906</v>
       </c>
+      <c r="O39" s="6">
+        <v>6.3894851911152701E-12</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>10645721.001135126</v>
+      </c>
+      <c r="R39" s="5">
+        <v>5.600335039151135E-5</v>
+      </c>
+      <c r="S39">
+        <v>0.98002095833570868</v>
+      </c>
+      <c r="T39">
+        <v>311</v>
+      </c>
+      <c r="U39">
+        <v>957</v>
+      </c>
+      <c r="V39">
+        <v>24</v>
+      </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>43</v>
@@ -4149,7 +4767,7 @@
       <c r="D40">
         <v>169</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>4.3496701012103148E-5</v>
       </c>
       <c r="F40">
@@ -4167,27 +4785,45 @@
       <c r="J40">
         <v>0.50112199783325195</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <v>1.152994034999871E-7</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>377.25000903502519</v>
       </c>
       <c r="M40">
         <v>441</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
-        <v>0.1096424190539729</v>
-      </c>
-      <c r="O40">
         <v>949</v>
       </c>
+      <c r="O40" s="6">
+        <v>1.37958937403167E-12</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>31528730.092338789</v>
+      </c>
+      <c r="R40" s="5">
+        <v>3.4731296677261632E-5</v>
+      </c>
+      <c r="S40">
+        <v>0.9787388595382488</v>
+      </c>
+      <c r="T40">
+        <v>331</v>
+      </c>
+      <c r="U40">
+        <v>988</v>
+      </c>
+      <c r="V40">
+        <v>25</v>
+      </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>44</v>
@@ -4198,7 +4834,7 @@
       <c r="D41">
         <v>173</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>2.7623026853932489E-5</v>
       </c>
       <c r="F41">
@@ -4216,27 +4852,45 @@
       <c r="J41">
         <v>0.48054075241088873</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="2">
         <v>9.9642715279229215E-8</v>
       </c>
       <c r="L41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>277.22073587140176</v>
       </c>
       <c r="M41">
         <v>423</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
-        <v>0.11999500148501127</v>
-      </c>
-      <c r="O41">
         <v>1038</v>
       </c>
+      <c r="O41" s="6">
+        <v>1.63989488407557E-13</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>168443886.99647629</v>
+      </c>
+      <c r="R41" s="5">
+        <v>2.1343448855793492E-5</v>
+      </c>
+      <c r="S41">
+        <v>0.97764942328989901</v>
+      </c>
+      <c r="T41">
+        <v>347</v>
+      </c>
+      <c r="U41">
+        <v>1029</v>
+      </c>
+      <c r="V41">
+        <v>25</v>
+      </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>45</v>
@@ -4247,7 +4901,7 @@
       <c r="D42">
         <v>177</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>1.7661718608268901E-5</v>
       </c>
       <c r="F42">
@@ -4265,27 +4919,38 @@
       <c r="J42">
         <v>0.69971466064453125</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="2">
         <v>2.961577483404098E-8</v>
       </c>
       <c r="L42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>596.36186144851968</v>
       </c>
       <c r="M42">
         <v>477</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
-        <v>9.1539706516458583E-2</v>
-      </c>
-      <c r="O42">
         <v>1081</v>
       </c>
+      <c r="R42" s="5">
+        <v>1.3130718417355841E-5</v>
+      </c>
+      <c r="S42">
+        <v>0.97630695929753575</v>
+      </c>
+      <c r="T42">
+        <v>365</v>
+      </c>
+      <c r="U42">
+        <v>1066</v>
+      </c>
+      <c r="V42">
+        <v>26</v>
+      </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B43">
         <v>46</v>
@@ -4296,7 +4961,7 @@
       <c r="D43">
         <v>181</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>1.0983301726623139E-5</v>
       </c>
       <c r="F43">
@@ -4314,27 +4979,38 @@
       <c r="J43">
         <v>0.57750225067138672</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="2">
         <v>2.802560041225484E-8</v>
       </c>
       <c r="L43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>391.90245936070784</v>
       </c>
       <c r="M43">
         <v>453</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
-        <v>0.10324180238648423</v>
-      </c>
-      <c r="O43">
         <v>1089</v>
       </c>
+      <c r="R43" s="5">
+        <v>7.4899202073373658E-6</v>
+      </c>
+      <c r="S43">
+        <v>0.97374103987894678</v>
+      </c>
+      <c r="T43">
+        <v>403</v>
+      </c>
+      <c r="U43">
+        <v>1097</v>
+      </c>
+      <c r="V43">
+        <v>27</v>
+      </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>47</v>
@@ -4345,7 +5021,7 @@
       <c r="D44">
         <v>185</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>7.106403098528692E-6</v>
       </c>
       <c r="F44">
@@ -4363,27 +5039,38 @@
       <c r="J44">
         <v>0.56880927085876465</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>7.5004725605900429E-9</v>
       </c>
       <c r="L44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>947.46071545786037</v>
       </c>
       <c r="M44">
         <v>514</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
-        <v>7.6043746131408019E-2</v>
-      </c>
-      <c r="O44">
         <v>1072</v>
       </c>
+      <c r="R44" s="5">
+        <v>4.9853938365249307E-6</v>
+      </c>
+      <c r="S44">
+        <v>0.97417499459762302</v>
+      </c>
+      <c r="T44">
+        <v>399</v>
+      </c>
+      <c r="U44">
+        <v>1135</v>
+      </c>
+      <c r="V44">
+        <v>27</v>
+      </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>48</v>
@@ -4394,7 +5081,7 @@
       <c r="D45">
         <v>189</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>4.3631894814958144E-6</v>
       </c>
       <c r="F45">
@@ -4412,27 +5099,38 @@
       <c r="J45">
         <v>0.54362797737121582</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="2">
         <v>4.5854170501793757E-9</v>
       </c>
       <c r="L45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>951.53601815240165</v>
       </c>
       <c r="M45">
         <v>519</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
-        <v>7.416156859737208E-2</v>
-      </c>
-      <c r="O45">
         <v>1205</v>
       </c>
+      <c r="R45" s="5">
+        <v>2.7410964513289709E-6</v>
+      </c>
+      <c r="S45">
+        <v>0.97102285214759643</v>
+      </c>
+      <c r="T45">
+        <v>442</v>
+      </c>
+      <c r="U45">
+        <v>1173</v>
+      </c>
+      <c r="V45">
+        <v>28</v>
+      </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>49</v>
@@ -4443,7 +5141,7 @@
       <c r="D46">
         <v>193</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>2.7329169430646979E-6</v>
       </c>
       <c r="F46">
@@ -4461,27 +5159,38 @@
       <c r="J46">
         <v>0.6145021915435791</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <v>7.0240561449092297E-9</v>
       </c>
       <c r="L46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>389.0795982667953</v>
       </c>
       <c r="M46">
         <v>464</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
-        <v>9.7703352516643791E-2</v>
-      </c>
-      <c r="O46">
         <v>1143</v>
       </c>
+      <c r="R46" s="5">
+        <v>1.555178489488029E-6</v>
+      </c>
+      <c r="S46">
+        <v>0.96833142079402201</v>
+      </c>
+      <c r="T46">
+        <v>481</v>
+      </c>
+      <c r="U46">
+        <v>1205</v>
+      </c>
+      <c r="V46">
+        <v>29</v>
+      </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>50</v>
@@ -4492,7 +5201,7 @@
       <c r="D47">
         <v>197</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>1.766232061898067E-6</v>
       </c>
       <c r="F47">
@@ -4510,66 +5219,62 @@
       <c r="J47">
         <v>0.55446910858154297</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="2">
         <v>2.2162897032089461E-10</v>
       </c>
       <c r="L47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7969.3194411396453</v>
       </c>
       <c r="M47">
         <v>666</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
-        <v>3.5495375645938382E-2</v>
-      </c>
-      <c r="O47">
         <v>1173</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="H48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="I48" t="s">
         <v>58</v>
       </c>
-      <c r="D48" t="s">
+      <c r="J48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E48" t="s">
+      <c r="M48" t="s">
         <v>60</v>
       </c>
-      <c r="F48" t="s">
+      <c r="N48" t="s">
         <v>61</v>
       </c>
-      <c r="G48" t="s">
+      <c r="O48" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" t="s">
-        <v>64</v>
-      </c>
-      <c r="J48" t="s">
-        <v>63</v>
-      </c>
-      <c r="K48" t="s">
-        <v>65</v>
-      </c>
-      <c r="M48" t="s">
-        <v>66</v>
-      </c>
-      <c r="N48" t="s">
-        <v>67</v>
-      </c>
-      <c r="O48" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/qft_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73235ADB-0CA3-BA4E-84D2-2888665E0F33}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F093D0-9593-204E-84AD-223001C87A7A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="4140" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1091,7 +1091,7 @@
                   <a:rPr lang="en-US" sz="1500" baseline="0">
                     <a:ea typeface="+mj-ea"/>
                   </a:rPr>
-                  <a:t>Ratio</a:t>
+                  <a:t>Ratio, log scale</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" sz="1500" baseline="0">
                   <a:ea typeface="+mj-ea"/>

--- a/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/qft_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F093D0-9593-204E-84AD-223001C87A7A}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65E8351A-08C4-8C4B-AE51-9FD3E3F5445E}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="4140" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -777,12 +777,159 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet!$P$2:$P$41</c:f>
+              <c:f>Sheet!$P$2:$P$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0341111414511606</c:v>
                 </c:pt>
@@ -902,6 +1049,24 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>168443886.99647629</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>372774448.83355045</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1486691509.9081247</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7462861204.0237083</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18187928024.641861</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>182781858918.24149</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>608737549903.25159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,16 +1964,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2123,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36:P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2256,7 +2421,7 @@
         <v>0.84884199999999999</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P41" si="0">E2/O2</f>
+        <f t="shared" ref="P2:P47" si="0">E2/O2</f>
         <v>1.0341111414511606</v>
       </c>
       <c r="R2" s="5">
@@ -4932,6 +5097,13 @@
       <c r="N42">
         <v>1081</v>
       </c>
+      <c r="O42" s="6">
+        <v>4.7379101930226799E-14</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>372774448.83355045</v>
+      </c>
       <c r="R42" s="5">
         <v>1.3130718417355841E-5</v>
       </c>
@@ -4992,6 +5164,13 @@
       <c r="N43">
         <v>1089</v>
       </c>
+      <c r="O43" s="6">
+        <v>7.3877476621238603E-15</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>1486691509.9081247</v>
+      </c>
       <c r="R43" s="5">
         <v>7.4899202073373658E-6</v>
       </c>
@@ -5052,6 +5231,13 @@
       <c r="N44">
         <v>1072</v>
       </c>
+      <c r="O44" s="6">
+        <v>9.5223573161151291E-16</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>7462861204.0237083</v>
+      </c>
       <c r="R44" s="5">
         <v>4.9853938365249307E-6</v>
       </c>
@@ -5112,6 +5298,13 @@
       <c r="N45">
         <v>1205</v>
       </c>
+      <c r="O45" s="6">
+        <v>2.3989480690622702E-16</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>18187928024.641861</v>
+      </c>
       <c r="R45" s="5">
         <v>2.7410964513289709E-6</v>
       </c>
@@ -5172,6 +5365,13 @@
       <c r="N46">
         <v>1143</v>
       </c>
+      <c r="O46" s="6">
+        <v>1.49517953216962E-17</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>182781858918.24149</v>
+      </c>
       <c r="R46" s="5">
         <v>1.555178489488029E-6</v>
       </c>
@@ -5231,6 +5431,13 @@
       </c>
       <c r="N47">
         <v>1173</v>
+      </c>
+      <c r="O47" s="6">
+        <v>2.9014672450858E-18</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>608737549903.25159</v>
       </c>
     </row>
     <row r="48" spans="1:22">

--- a/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/qft_cz_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/qft_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65E8351A-08C4-8C4B-AE51-9FD3E3F5445E}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_3C29C4A8DD1A535E1540CEF0505ED87656CD2AE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C83112BD-1EC9-DC4D-87DC-3D1B784FAEE4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1100" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9020" yWindow="540" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1964,16 +1964,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2288,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36:P47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5490,6 +5490,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>